--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H2">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I2">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J2">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.7443338830155</v>
+        <v>27.63663966666667</v>
       </c>
       <c r="N2">
-        <v>22.7443338830155</v>
+        <v>82.909919</v>
       </c>
       <c r="O2">
-        <v>0.387089997008499</v>
+        <v>0.4201409441224362</v>
       </c>
       <c r="P2">
-        <v>0.387089997008499</v>
+        <v>0.4201409441224363</v>
       </c>
       <c r="Q2">
-        <v>4.538292925192762</v>
+        <v>7.584498055774556</v>
       </c>
       <c r="R2">
-        <v>4.538292925192762</v>
+        <v>68.26048250197101</v>
       </c>
       <c r="S2">
-        <v>0.08430352257240704</v>
+        <v>0.09512814597964496</v>
       </c>
       <c r="T2">
-        <v>0.08430352257240704</v>
+        <v>0.09512814597964499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H3">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I3">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J3">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.6167974115468</v>
+        <v>28.23354400000001</v>
       </c>
       <c r="N3">
-        <v>26.6167974115468</v>
+        <v>84.70063200000001</v>
       </c>
       <c r="O3">
-        <v>0.4529961652605437</v>
+        <v>0.4292152727377171</v>
       </c>
       <c r="P3">
-        <v>0.4529961652605437</v>
+        <v>0.4292152727377173</v>
       </c>
       <c r="Q3">
-        <v>5.310985320801866</v>
+        <v>7.748310292365335</v>
       </c>
       <c r="R3">
-        <v>5.310985320801866</v>
+        <v>69.73479263128802</v>
       </c>
       <c r="S3">
-        <v>0.09865708940656917</v>
+        <v>0.09718275186668786</v>
       </c>
       <c r="T3">
-        <v>0.09865708940656917</v>
+        <v>0.09718275186668787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H4">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I4">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J4">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.396093275402819</v>
+        <v>9.909265</v>
       </c>
       <c r="N4">
-        <v>9.396093275402819</v>
+        <v>29.727795</v>
       </c>
       <c r="O4">
-        <v>0.1599138377309573</v>
+        <v>0.1506437831398465</v>
       </c>
       <c r="P4">
-        <v>0.1599138377309573</v>
+        <v>0.1506437831398465</v>
       </c>
       <c r="Q4">
-        <v>1.874850406942684</v>
+        <v>2.719462352628333</v>
       </c>
       <c r="R4">
-        <v>1.874850406942684</v>
+        <v>24.475161173655</v>
       </c>
       <c r="S4">
-        <v>0.03482730097129324</v>
+        <v>0.03410870564730571</v>
       </c>
       <c r="T4">
-        <v>0.03482730097129324</v>
+        <v>0.03410870564730573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H5">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I5">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J5">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7443338830155</v>
+        <v>27.63663966666667</v>
       </c>
       <c r="N5">
-        <v>22.7443338830155</v>
+        <v>82.909919</v>
       </c>
       <c r="O5">
-        <v>0.387089997008499</v>
+        <v>0.4201409441224362</v>
       </c>
       <c r="P5">
-        <v>0.387089997008499</v>
+        <v>0.4201409441224363</v>
       </c>
       <c r="Q5">
-        <v>16.29983745456368</v>
+        <v>21.98614444255222</v>
       </c>
       <c r="R5">
-        <v>16.29983745456368</v>
+        <v>197.87529998297</v>
       </c>
       <c r="S5">
-        <v>0.302786474436092</v>
+        <v>0.275759996598361</v>
       </c>
       <c r="T5">
-        <v>0.302786474436092</v>
+        <v>0.2757599965983611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H6">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I6">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J6">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.6167974115468</v>
+        <v>28.23354400000001</v>
       </c>
       <c r="N6">
-        <v>26.6167974115468</v>
+        <v>84.70063200000001</v>
       </c>
       <c r="O6">
-        <v>0.4529961652605437</v>
+        <v>0.4292152727377171</v>
       </c>
       <c r="P6">
-        <v>0.4529961652605437</v>
+        <v>0.4292152727377173</v>
       </c>
       <c r="Q6">
-        <v>19.07505726924122</v>
+        <v>22.46100770557334</v>
       </c>
       <c r="R6">
-        <v>19.07505726924122</v>
+        <v>202.14906935016</v>
       </c>
       <c r="S6">
-        <v>0.3543390758539746</v>
+        <v>0.2817159427233192</v>
       </c>
       <c r="T6">
-        <v>0.3543390758539746</v>
+        <v>0.2817159427233193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7955433333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.38663</v>
+      </c>
+      <c r="I7">
+        <v>0.6563511613331356</v>
+      </c>
+      <c r="J7">
+        <v>0.6563511613331356</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.909265</v>
+      </c>
+      <c r="N7">
+        <v>29.727795</v>
+      </c>
+      <c r="O7">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="P7">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="Q7">
+        <v>7.883249708983333</v>
+      </c>
+      <c r="R7">
+        <v>70.94924738085</v>
+      </c>
+      <c r="S7">
+        <v>0.09887522201145527</v>
+      </c>
+      <c r="T7">
+        <v>0.09887522201145531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.062363</v>
+      </c>
+      <c r="I8">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J8">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.63663966666667</v>
+      </c>
+      <c r="N8">
+        <v>82.909919</v>
+      </c>
+      <c r="O8">
+        <v>0.4201409441224362</v>
+      </c>
+      <c r="P8">
+        <v>0.4201409441224363</v>
+      </c>
+      <c r="Q8">
+        <v>0.5745012531774445</v>
+      </c>
+      <c r="R8">
+        <v>5.170511278597</v>
+      </c>
+      <c r="S8">
+        <v>0.007205650087304523</v>
+      </c>
+      <c r="T8">
+        <v>0.007205650087304525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.062363</v>
+      </c>
+      <c r="I9">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J9">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.23354400000001</v>
+      </c>
+      <c r="N9">
+        <v>84.70063200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4292152727377171</v>
+      </c>
+      <c r="P9">
+        <v>0.4292152727377173</v>
+      </c>
+      <c r="Q9">
+        <v>0.5869095014906668</v>
+      </c>
+      <c r="R9">
+        <v>5.282185513416001</v>
+      </c>
+      <c r="S9">
+        <v>0.007361279853204878</v>
+      </c>
+      <c r="T9">
+        <v>0.00736127985320488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.062363</v>
+      </c>
+      <c r="I10">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J10">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.909265</v>
+      </c>
+      <c r="N10">
+        <v>29.727795</v>
+      </c>
+      <c r="O10">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="P10">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="Q10">
+        <v>0.2059904977316666</v>
+      </c>
+      <c r="R10">
+        <v>1.853914479585</v>
+      </c>
+      <c r="S10">
+        <v>0.002583624386813367</v>
+      </c>
+      <c r="T10">
+        <v>0.002583624386813368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.363907</v>
+      </c>
+      <c r="I11">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J11">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.63663966666667</v>
+      </c>
+      <c r="N11">
+        <v>82.909919</v>
+      </c>
+      <c r="O11">
+        <v>0.4201409441224362</v>
+      </c>
+      <c r="P11">
+        <v>0.4201409441224363</v>
+      </c>
+      <c r="Q11">
+        <v>3.352388877059222</v>
+      </c>
+      <c r="R11">
+        <v>30.171499893533</v>
+      </c>
+      <c r="S11">
+        <v>0.04204715145712565</v>
+      </c>
+      <c r="T11">
+        <v>0.04204715145712565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.716654861751555</v>
-      </c>
-      <c r="H7">
-        <v>0.716654861751555</v>
-      </c>
-      <c r="I7">
-        <v>0.7822120870497306</v>
-      </c>
-      <c r="J7">
-        <v>0.7822120870497306</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.396093275402819</v>
-      </c>
-      <c r="N7">
-        <v>9.396093275402819</v>
-      </c>
-      <c r="O7">
-        <v>0.1599138377309573</v>
-      </c>
-      <c r="P7">
-        <v>0.1599138377309573</v>
-      </c>
-      <c r="Q7">
-        <v>6.733755927288523</v>
-      </c>
-      <c r="R7">
-        <v>6.733755927288523</v>
-      </c>
-      <c r="S7">
-        <v>0.1250865367596641</v>
-      </c>
-      <c r="T7">
-        <v>0.1250865367596641</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.363907</v>
+      </c>
+      <c r="I12">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J12">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.23354400000001</v>
+      </c>
+      <c r="N12">
+        <v>84.70063200000001</v>
+      </c>
+      <c r="O12">
+        <v>0.4292152727377171</v>
+      </c>
+      <c r="P12">
+        <v>0.4292152727377173</v>
+      </c>
+      <c r="Q12">
+        <v>3.424794765469334</v>
+      </c>
+      <c r="R12">
+        <v>30.823152889224</v>
+      </c>
+      <c r="S12">
+        <v>0.04295529829450519</v>
+      </c>
+      <c r="T12">
+        <v>0.0429552982945052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.363907</v>
+      </c>
+      <c r="I13">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J13">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.909265</v>
+      </c>
+      <c r="N13">
+        <v>29.727795</v>
+      </c>
+      <c r="O13">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="P13">
+        <v>0.1506437831398465</v>
+      </c>
+      <c r="Q13">
+        <v>1.202016966118333</v>
+      </c>
+      <c r="R13">
+        <v>10.818152695065</v>
+      </c>
+      <c r="S13">
+        <v>0.01507623109427212</v>
+      </c>
+      <c r="T13">
+        <v>0.01507623109427212</v>
       </c>
     </row>
   </sheetData>
